--- a/biology/Botanique/Programinis/Programinis.xlsx
+++ b/biology/Botanique/Programinis/Programinis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Programinis est un genre fossile de plantes à fleurs de la famille des Poaceae, qui comprend deux espèces décrites : Programinis burmitis et Programinis laminatus.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (19 mars 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (19 mars 2021) :
 †Programinis burmitis Poinar, 2004
 †Programinis laminatus Poinar, 2004</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) George O. Poinar, Jr., « Programinis burmitis gen. et sp. nov., and P. laminatus sp. nov., Early Cretaceous grass-like monocots in Burmese amber », Australian Systematic Botany, vol. 17, no 5,‎ 2004, p. 497 (ISSN 1030-1887, DOI 10.1071/SB04002, lire en ligne , consulté le 13 octobre 2023)</t>
         </is>
